--- a/data/source_values_sdtm.xlsx
+++ b/data/source_values_sdtm.xlsx
@@ -364,7 +364,7 @@
     <t>TRORRESU</t>
   </si>
   <si>
-    <t>UNIT_OR_LDIAM_ORU_LDIAM</t>
+    <t>UNIT_ORU_LDIAM</t>
   </si>
   <si>
     <t>Assigned</t>
@@ -379,7 +379,7 @@
     <t>mm</t>
   </si>
   <si>
-    <t>UNIT_OR_LPERP_ORU_LPERP</t>
+    <t>UNIT_ORU_LPERP</t>
   </si>
   <si>
     <t>TRSTRESC</t>
@@ -786,7 +786,7 @@
     <col min="13" max="13" width="15.71" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.71" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.71" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.71" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.71" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.71" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.71" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.71" bestFit="1" customWidth="1"/>
